--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="24760" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,8 +134,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -177,7 +195,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -190,6 +208,15 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -202,6 +229,15 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -547,11 +583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2141384040"/>
-        <c:axId val="-2139472984"/>
+        <c:axId val="2129307912"/>
+        <c:axId val="2129311032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2141384040"/>
+        <c:axId val="2129307912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139472984"/>
+        <c:crossAx val="2129311032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -569,7 +605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139472984"/>
+        <c:axId val="2129311032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,7 +616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141384040"/>
+        <c:crossAx val="2129307912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -637,7 +673,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.110782573582984"/>
+          <c:y val="0.234259259259259"/>
+          <c:w val="0.695766641209982"/>
+          <c:h val="0.67154345290172"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -919,11 +965,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2116682904"/>
-        <c:axId val="-2139352440"/>
+        <c:axId val="2129387336"/>
+        <c:axId val="2129390456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2116682904"/>
+        <c:axId val="2129387336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139352440"/>
+        <c:crossAx val="2129390456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -941,7 +987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139352440"/>
+        <c:axId val="2129390456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116682904"/>
+        <c:crossAx val="2129387336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1291,11 +1337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2116885832"/>
-        <c:axId val="-2120203560"/>
+        <c:axId val="2119920712"/>
+        <c:axId val="2119923832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2116885832"/>
+        <c:axId val="2119920712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120203560"/>
+        <c:crossAx val="2119923832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1313,7 +1359,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120203560"/>
+        <c:axId val="2119923832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116885832"/>
+        <c:crossAx val="2119920712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1663,11 +1709,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2117787512"/>
-        <c:axId val="-2139489688"/>
+        <c:axId val="2119748504"/>
+        <c:axId val="2119845208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2117787512"/>
+        <c:axId val="2119748504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139489688"/>
+        <c:crossAx val="2119845208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1685,7 +1731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139489688"/>
+        <c:axId val="2119845208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,7 +1742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117787512"/>
+        <c:crossAx val="2119748504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1915,11 +1961,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117933864"/>
-        <c:axId val="-2120486344"/>
+        <c:axId val="2119946568"/>
+        <c:axId val="2119949528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117933864"/>
+        <c:axId val="2119946568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,12 +1975,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120486344"/>
+        <c:crossAx val="2119949528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2120486344"/>
+        <c:axId val="2119949528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117933864"/>
+        <c:crossAx val="2119946568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2164,11 +2210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115154536"/>
-        <c:axId val="-2116972808"/>
+        <c:axId val="2129434728"/>
+        <c:axId val="2129437688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2115154536"/>
+        <c:axId val="2129434728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,12 +2224,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116972808"/>
+        <c:crossAx val="2129437688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2116972808"/>
+        <c:axId val="2129437688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,7 +2240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115154536"/>
+        <c:crossAx val="2129434728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2377,7 +2423,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:colOff>736600</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2725,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
